--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Avpr2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05199733333333334</v>
+        <v>0.3742546666666667</v>
       </c>
       <c r="H2">
-        <v>0.155992</v>
+        <v>1.122764</v>
       </c>
       <c r="I2">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="J2">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N2">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P2">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q2">
-        <v>0.003356861177777779</v>
+        <v>0.002331856076444444</v>
       </c>
       <c r="R2">
-        <v>0.03021175060000001</v>
+        <v>0.020986704688</v>
       </c>
       <c r="S2">
-        <v>0.01386753822606625</v>
+        <v>0.07810836995898321</v>
       </c>
       <c r="T2">
-        <v>0.01386753822606625</v>
+        <v>0.07810836995898321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05199733333333334</v>
+        <v>0.3742546666666667</v>
       </c>
       <c r="H3">
-        <v>0.155992</v>
+        <v>1.122764</v>
       </c>
       <c r="I3">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="J3">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,90 +623,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N3">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O3">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P3">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q3">
-        <v>0.007903317347555557</v>
+        <v>0.002469082787555556</v>
       </c>
       <c r="R3">
-        <v>0.071129856128</v>
+        <v>0.022221745088</v>
       </c>
       <c r="S3">
-        <v>0.03264941551813395</v>
+        <v>0.08270494640638755</v>
       </c>
       <c r="T3">
-        <v>0.03264941551813395</v>
+        <v>0.08270494640638754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05199733333333334</v>
+        <v>0.2258343333333333</v>
       </c>
       <c r="H4">
-        <v>0.155992</v>
+        <v>0.677503</v>
       </c>
       <c r="I4">
-        <v>0.05749835420950085</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="J4">
-        <v>0.05749835420950085</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N4">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P4">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q4">
-        <v>0.002658225007111111</v>
+        <v>0.001407098452888889</v>
       </c>
       <c r="R4">
-        <v>0.023924025064</v>
+        <v>0.012663886076</v>
       </c>
       <c r="S4">
-        <v>0.01098140046530065</v>
+        <v>0.04713248284797251</v>
       </c>
       <c r="T4">
-        <v>0.01098140046530065</v>
+        <v>0.0471324828479725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,134 +735,134 @@
         <v>0.677503</v>
       </c>
       <c r="I5">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="J5">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N5">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P5">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q5">
-        <v>0.01457948816944445</v>
+        <v>0.001489904375111111</v>
       </c>
       <c r="R5">
-        <v>0.131215393525</v>
+        <v>0.013409139376</v>
       </c>
       <c r="S5">
-        <v>0.06022936272869482</v>
+        <v>0.04990616844249262</v>
       </c>
       <c r="T5">
-        <v>0.06022936272869481</v>
+        <v>0.04990616844249261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5591360000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.677408</v>
+      </c>
+      <c r="I6">
+        <v>0.2402548918364</v>
+      </c>
+      <c r="J6">
+        <v>0.2402548918364</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.2258343333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.677503</v>
-      </c>
-      <c r="I6">
-        <v>0.2497263159136331</v>
-      </c>
-      <c r="J6">
-        <v>0.2497263159136331</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N6">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O6">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P6">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q6">
-        <v>0.03432561421688889</v>
+        <v>0.003483790037333334</v>
       </c>
       <c r="R6">
-        <v>0.308930527952</v>
+        <v>0.031354110336</v>
       </c>
       <c r="S6">
-        <v>0.1418026370697363</v>
+        <v>0.1166938062105288</v>
       </c>
       <c r="T6">
-        <v>0.1418026370697363</v>
+        <v>0.1166938062105288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2258343333333333</v>
+        <v>0.5591360000000001</v>
       </c>
       <c r="H7">
-        <v>0.677503</v>
+        <v>1.677408</v>
       </c>
       <c r="I7">
-        <v>0.2497263159136331</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="J7">
-        <v>0.2497263159136331</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,60 +871,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N7">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P7">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q7">
-        <v>0.01154517806677778</v>
+        <v>0.003688806570666667</v>
       </c>
       <c r="R7">
-        <v>0.103906602601</v>
+        <v>0.033199259136</v>
       </c>
       <c r="S7">
-        <v>0.04769431611520195</v>
+        <v>0.1235610856258713</v>
       </c>
       <c r="T7">
-        <v>0.04769431611520195</v>
+        <v>0.1235610856258713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.197697</v>
+        <v>0.016187</v>
       </c>
       <c r="H8">
-        <v>0.5930909999999999</v>
+        <v>0.048561</v>
       </c>
       <c r="I8">
-        <v>0.2186122134241952</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="J8">
-        <v>0.2186122134241952</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,60 +933,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06455833333333334</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N8">
-        <v>0.193675</v>
+        <v>0.018692</v>
       </c>
       <c r="O8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P8">
-        <v>0.2411814810479362</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q8">
-        <v>0.012762988825</v>
+        <v>0.0001008558013333333</v>
       </c>
       <c r="R8">
-        <v>0.114866899425</v>
+        <v>0.0009077022120000001</v>
       </c>
       <c r="S8">
-        <v>0.05272521740881493</v>
+        <v>0.003378288361203408</v>
       </c>
       <c r="T8">
-        <v>0.05272521740881492</v>
+        <v>0.003378288361203408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.197697</v>
+        <v>0.016187</v>
       </c>
       <c r="H9">
-        <v>0.5930909999999999</v>
+        <v>0.048561</v>
       </c>
       <c r="I9">
-        <v>0.2186122134241952</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="J9">
-        <v>0.2186122134241952</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,246 +995,246 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1519946666666667</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N9">
-        <v>0.455984</v>
+        <v>0.019792</v>
       </c>
       <c r="O9">
-        <v>0.5678321747988235</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P9">
-        <v>0.5678321747988234</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q9">
-        <v>0.030048889616</v>
+        <v>0.0001067910346666667</v>
       </c>
       <c r="R9">
-        <v>0.270440006544</v>
+        <v>0.000961119312</v>
       </c>
       <c r="S9">
-        <v>0.1241350485862453</v>
+        <v>0.003577096257486511</v>
       </c>
       <c r="T9">
-        <v>0.1241350485862453</v>
+        <v>0.003577096257486511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3663163333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.098949</v>
+      </c>
+      <c r="I10">
+        <v>0.1574022975499818</v>
+      </c>
+      <c r="J10">
+        <v>0.1574022975499818</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.197697</v>
-      </c>
-      <c r="H10">
-        <v>0.5930909999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.2186122134241952</v>
-      </c>
-      <c r="J10">
-        <v>0.2186122134241952</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.05112233333333333</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N10">
-        <v>0.153367</v>
+        <v>0.018692</v>
       </c>
       <c r="O10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P10">
-        <v>0.1909863441532404</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q10">
-        <v>0.010106731933</v>
+        <v>0.002282394967555555</v>
       </c>
       <c r="R10">
-        <v>0.09096058739699998</v>
+        <v>0.020541554708</v>
       </c>
       <c r="S10">
-        <v>0.04175194742913498</v>
+        <v>0.07645160965087466</v>
       </c>
       <c r="T10">
-        <v>0.04175194742913498</v>
+        <v>0.07645160965087465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1053596666666667</v>
+        <v>0.3663163333333333</v>
       </c>
       <c r="H11">
-        <v>0.316079</v>
+        <v>1.098949</v>
       </c>
       <c r="I11">
-        <v>0.1165061176226013</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="J11">
-        <v>0.1165061176226013</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.06455833333333334</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N11">
-        <v>0.193675</v>
+        <v>0.019792</v>
       </c>
       <c r="O11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P11">
-        <v>0.2411814810479362</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q11">
-        <v>0.006801844480555557</v>
+        <v>0.002416710956444444</v>
       </c>
       <c r="R11">
-        <v>0.061216600325</v>
+        <v>0.021750398608</v>
       </c>
       <c r="S11">
-        <v>0.02809911799936404</v>
+        <v>0.08095068789910718</v>
       </c>
       <c r="T11">
-        <v>0.02809911799936403</v>
+        <v>0.08095068789910717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7855333333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.3566</v>
+      </c>
+      <c r="I12">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="J12">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.1053596666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.316079</v>
-      </c>
-      <c r="I12">
-        <v>0.1165061176226013</v>
-      </c>
-      <c r="J12">
-        <v>0.1165061176226013</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M12">
-        <v>0.1519946666666667</v>
+        <v>0.006230666666666666</v>
       </c>
       <c r="N12">
-        <v>0.455984</v>
+        <v>0.018692</v>
       </c>
       <c r="O12">
-        <v>0.5678321747988235</v>
+        <v>0.4857083463257458</v>
       </c>
       <c r="P12">
-        <v>0.5678321747988234</v>
+        <v>0.4857083463257457</v>
       </c>
       <c r="Q12">
-        <v>0.01601410741511111</v>
+        <v>0.004894396355555556</v>
       </c>
       <c r="R12">
-        <v>0.144126966736</v>
+        <v>0.04404956720000001</v>
       </c>
       <c r="S12">
-        <v>0.06615592214700922</v>
+        <v>0.1639437892961832</v>
       </c>
       <c r="T12">
-        <v>0.0661559221470092</v>
+        <v>0.1639437892961832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1053596666666667</v>
+        <v>0.7855333333333334</v>
       </c>
       <c r="H13">
-        <v>0.316079</v>
+        <v>2.3566</v>
       </c>
       <c r="I13">
-        <v>0.1165061176226013</v>
+        <v>0.3375354583390924</v>
       </c>
       <c r="J13">
-        <v>0.1165061176226013</v>
+        <v>0.3375354583390924</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,214 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05112233333333333</v>
+        <v>0.006597333333333334</v>
       </c>
       <c r="N13">
-        <v>0.153367</v>
+        <v>0.019792</v>
       </c>
       <c r="O13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742543</v>
       </c>
       <c r="P13">
-        <v>0.1909863441532404</v>
+        <v>0.5142916536742542</v>
       </c>
       <c r="Q13">
-        <v>0.005386231999222222</v>
+        <v>0.005182425244444445</v>
       </c>
       <c r="R13">
-        <v>0.048476087993</v>
+        <v>0.04664182720000001</v>
       </c>
       <c r="S13">
-        <v>0.02225107747622803</v>
+        <v>0.1735916690429092</v>
       </c>
       <c r="T13">
-        <v>0.02225107747622803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.323439</v>
-      </c>
-      <c r="H14">
-        <v>0.9703169999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="J14">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.06455833333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.193675</v>
-      </c>
-      <c r="O14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="P14">
-        <v>0.2411814810479362</v>
-      </c>
-      <c r="Q14">
-        <v>0.020880682775</v>
-      </c>
-      <c r="R14">
-        <v>0.187926144975</v>
-      </c>
-      <c r="S14">
-        <v>0.08626024468499618</v>
-      </c>
-      <c r="T14">
-        <v>0.08626024468499617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.323439</v>
-      </c>
-      <c r="H15">
-        <v>0.9703169999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="J15">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1519946666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.455984</v>
-      </c>
-      <c r="O15">
-        <v>0.5678321747988235</v>
-      </c>
-      <c r="P15">
-        <v>0.5678321747988234</v>
-      </c>
-      <c r="Q15">
-        <v>0.049161002992</v>
-      </c>
-      <c r="R15">
-        <v>0.4424490269279999</v>
-      </c>
-      <c r="S15">
-        <v>0.2030891514776987</v>
-      </c>
-      <c r="T15">
-        <v>0.2030891514776987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.323439</v>
-      </c>
-      <c r="H16">
-        <v>0.9703169999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="J16">
-        <v>0.3576569988300696</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05112233333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.153367</v>
-      </c>
-      <c r="O16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="P16">
-        <v>0.1909863441532404</v>
-      </c>
-      <c r="Q16">
-        <v>0.016534956371</v>
-      </c>
-      <c r="R16">
-        <v>0.148814607339</v>
-      </c>
-      <c r="S16">
-        <v>0.06830760266737476</v>
-      </c>
-      <c r="T16">
-        <v>0.06830760266737476</v>
+        <v>0.1735916690429092</v>
       </c>
     </row>
   </sheetData>
